--- a/CAD/Production/Bill of Materials-AVR64DA64-BREAKOUT(AVR64DA64-BREAKOUT-JLCPCB).xlsx
+++ b/CAD/Production/Bill of Materials-AVR64DA64-BREAKOUT(AVR64DA64-BREAKOUT-JLCPCB).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\AVR64DA64-Breakout\CAD\Production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40EA2B1D-B241-4D5A-B971-9B568C27E3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C74DAF0-CF9A-4C28-9CCE-317BA928F519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15345" xr2:uid="{E6D463F3-E522-43A3-B11F-86B264835F50}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15345" xr2:uid="{E5FC13FE-8173-474F-9BF3-8D27BD212B11}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-AVR64DA64-BRE" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Description</t>
   </si>
@@ -107,93 +107,6 @@
     <t>C2290</t>
   </si>
   <si>
-    <t>DISPLAY,LCD,ALPHA,2X40CHAR,HD44780,YELLOW BL</t>
-  </si>
-  <si>
-    <t>DISP1</t>
-  </si>
-  <si>
-    <t>C429960</t>
-  </si>
-  <si>
-    <t>CONN,HEADER,1x3,2.54mm</t>
-  </si>
-  <si>
-    <t>J1, J14</t>
-  </si>
-  <si>
-    <t>C429954</t>
-  </si>
-  <si>
-    <t>CONN,HEADER,2X4,2.54mm</t>
-  </si>
-  <si>
-    <t>J2, J3</t>
-  </si>
-  <si>
-    <t>C42431809</t>
-  </si>
-  <si>
-    <t>CONN,USB2.0,B,RA,BLUE</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>C720549</t>
-  </si>
-  <si>
-    <t>CONN,HEADER,2X8,2.54mm</t>
-  </si>
-  <si>
-    <t>J5_PCAL0, J5_PCAL1, J5_PORTA, J5_PORTB, J5_PORTC, J5_PORTD, J5_PORTE, J5_PORTF, J5_PORTG</t>
-  </si>
-  <si>
-    <t>C42431826</t>
-  </si>
-  <si>
-    <t>CONN,HEADER,2X10,2.54mm</t>
-  </si>
-  <si>
-    <t>J6_PCAL0, J6_PCAL1, J6_PORTA, J6_PORTB, J6_PORTC, J6_PORTD, J6_PORTE, J6_PORTF, J6_PORTG</t>
-  </si>
-  <si>
-    <t>C5383109</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>C429961</t>
-  </si>
-  <si>
-    <t>CONN,DCPOWER,BARREL,CUI,PJ002B</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>CONN,HEADER,2X2,2.54mm</t>
-  </si>
-  <si>
-    <t>J11, J12</t>
-  </si>
-  <si>
-    <t>C5383103</t>
-  </si>
-  <si>
-    <t>CONN,HEADER,2X5,2.54mm</t>
-  </si>
-  <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>C42431802</t>
-  </si>
-  <si>
     <t>IND,4u7H,0.6A,0603, LLQM18PN4R7MFRL</t>
   </si>
   <si>
@@ -215,7 +128,7 @@
     <t>RESISTOR,1K,1%,100mW,0603 (1608)</t>
   </si>
   <si>
-    <t>R1, R2, R11, R13, R14, R17, R42, R43, R45</t>
+    <t>R1, R2, R11, R13, R14, R42, R43, R45</t>
   </si>
   <si>
     <t>C21190</t>
@@ -251,7 +164,7 @@
     <t>RESISTOR,10K,1%,100mW,0603 (1608)</t>
   </si>
   <si>
-    <t>R18, R22_PCAL0, R22_PCAL1, R22_PORTA, R22_PORTB, R22_PORTC, R22_PORTD, R22_PORTE, R22_PORTF, R22_PORTG, R23_PCAL0, R23_PCAL1, R23_PORTA, R23_PORTB, R23_PORTC, R23_PORTD, R23_PORTE, R23_PORTF, R23_PORTG, R24_PCAL0, R24_PCAL1, R24_PORTA, R24_PORTB, R24_PORTC, R24_PORTD, R24_PORTE, R24_PORTF, R24_PORTG, R25_PCAL0, R25_PCAL1, R25_PORTA, R25_PORTB, R25_PORTC, R25_PORTD, R25_PORTE, R25_PORTF, R25_PORTG, R26_PCAL0, R26_PCAL1, R26_PORTA, R26_PORTB, R26_PORTC, R26_PORTD, R26_PORTE, R26_PORTF, R26_PORTG, R27_PCAL0, R27_PCAL1, R27_PORTA, R27_PORTB, R27_PORTC, R27_PORTD, R27_PORTE, R27_PORTF, R27_PORTG, R28_PCAL0, R28_PCAL1, R28_PORTA, R28_PORTB, R28_PORTC, R28_PORTD, R28_PORTE, R28_PORTF, R28_PORTG, R29_PCAL0, R29_PCAL1, R29_PORTA, R29_PORTB, R29_PORTC, R29_PORTD, R29_PORTE, R29_PORTF, R29_PORTG, R44</t>
+    <t>R17, R18, R22_PCAL0, R22_PCAL1, R22_PORTA, R22_PORTB, R22_PORTC, R22_PORTD, R22_PORTE, R22_PORTF, R22_PORTG, R23_PCAL0, R23_PCAL1, R23_PORTA, R23_PORTB, R23_PORTC, R23_PORTD, R23_PORTE, R23_PORTF, R23_PORTG, R24_PCAL0, R24_PCAL1, R24_PORTA, R24_PORTB, R24_PORTC, R24_PORTD, R24_PORTE, R24_PORTF, R24_PORTG, R25_PCAL0, R25_PCAL1, R25_PORTA, R25_PORTB, R25_PORTC, R25_PORTD, R25_PORTE, R25_PORTF, R25_PORTG, R26_PCAL0, R26_PCAL1, R26_PORTA, R26_PORTB, R26_PORTC, R26_PORTD, R26_PORTE, R26_PORTF, R26_PORTG, R27_PCAL0, R27_PCAL1, R27_PORTA, R27_PORTB, R27_PORTC, R27_PORTD, R27_PORTE, R27_PORTF, R27_PORTG, R28_PCAL0, R28_PCAL1, R28_PORTA, R28_PORTB, R28_PORTC, R28_PORTD, R28_PORTE, R28_PORTF, R28_PORTG, R29_PCAL0, R29_PCAL1, R29_PORTA, R29_PORTB, R29_PORTC, R29_PORTD, R29_PORTE, R29_PORTF, R29_PORTG, R44</t>
   </si>
   <si>
     <t>C25804</t>
@@ -722,8 +635,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A9E089-73A3-4481-869C-E617AB4DB28A}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B7096A-25EC-4612-B128-89AEA9F698E5}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -853,7 +766,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
@@ -867,7 +780,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -881,7 +794,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -895,7 +808,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
@@ -909,7 +822,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -923,7 +836,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>42</v>
@@ -937,246 +850,108 @@
         <v>44</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="1">
-        <v>73</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="1">
-        <v>18</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
